--- a/doc/DT_DialogueTable.xlsx
+++ b/doc/DT_DialogueTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FDE9F-C63C-4222-9A4A-B9DEAF38DF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF35B4E5-47B5-479E-BF0B-9FB204D63088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="3495" windowWidth="18450" windowHeight="8970" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,27 +46,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StartScriptID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트용2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>({"ConditionType":"CT_NONE","ConditionValue":"","ScriptID":2})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>({"ConditionType":"CT_HAS_ITEM","ConditionValue":"","ScriptID":2}, {"ConditionType":"CT_NONE","ConditionValue":"100","ScriptID":2})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트용3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NextDialogueConditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScriptID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>({"ConditionType":"CT_NONE","ConditionValue":"","DialogueID":2})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>({"ConditionType":"CT_HAS_ITEM","ConditionValue":"","DialogueID":2}, {"ConditionType":"CT_NONE","ConditionValue":"100","DialogueID":2})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -489,23 +489,23 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>

--- a/doc/DT_DialogueTable.xlsx
+++ b/doc/DT_DialogueTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF35B4E5-47B5-479E-BF0B-9FB204D63088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D65C257-D3C4-4532-8E7D-F7EF1C911809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>RowName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,27 +46,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트용2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextDialogueConditions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ScriptID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>({"ConditionType":"CT_NONE","ConditionValue":"","DialogueID":2})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>({"ConditionType":"CT_HAS_ITEM","ConditionValue":"","DialogueID":2}, {"ConditionType":"CT_NONE","ConditionValue":"100","DialogueID":2})</t>
+    <t>DialogueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultNextDialogueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionNextDialogueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT_INVALID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,20 +95,53 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -113,8 +150,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,64 +503,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AA4CA8-C7A6-4795-ACFC-30402DB88812}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.19921875" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" customWidth="1"/>
+    <col min="4" max="4" width="33.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
